--- a/sydw/2020上/考点/4-公文.xlsx
+++ b/sydw/2020上/考点/4-公文.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概念分类" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="325">
   <si>
     <t>法律依据</t>
   </si>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>议案</t>
     </r>
     <r>
@@ -903,6 +911,9 @@
     <t>特殊</t>
   </si>
   <si>
+    <t>签发</t>
+  </si>
+  <si>
     <t>适用范围</t>
   </si>
   <si>
@@ -915,6 +926,9 @@
     <t>权威性</t>
   </si>
   <si>
+    <t>必须会议</t>
+  </si>
+  <si>
     <t>经会议讨论通过的重大决策事项</t>
   </si>
   <si>
@@ -954,10 +968,189 @@
     <t>规定性</t>
   </si>
   <si>
-    <t>1.重要事项、重大行动作出安排；2.奖惩有关单位或人员；3.变更或撤销下级机关不适当的决定事项</t>
+    <t>指挥性决定</t>
+  </si>
+  <si>
+    <t>1.会议通过。2.领导签发</t>
+  </si>
+  <si>
+    <t>1.重要事项、重大行动作出安排；
+2.奖惩有关单位或人员；
+3.变更或撤销下级机关不适当的决定事项</t>
+  </si>
+  <si>
+    <t>对重大事项或行动作出安排</t>
+  </si>
+  <si>
+    <t>知照性决定</t>
+  </si>
+  <si>
+    <t>用于机构设立、人事安排、撤销下级决定等事项的宣告</t>
   </si>
   <si>
     <t>稳定性</t>
+  </si>
+  <si>
+    <t>奖惩性决定</t>
+  </si>
+  <si>
+    <t>用于表彰、处分</t>
+  </si>
+  <si>
+    <t>命令(令)</t>
+  </si>
+  <si>
+    <t>公布令</t>
+  </si>
+  <si>
+    <t>1.公布行政法规和规章;
+2.宣布重大强制性行政措施;
+3.批准授予和晋升衔级;
+4.嘉奖单位或个人</t>
+  </si>
+  <si>
+    <t>1.县级以上才可以制发</t>
+  </si>
+  <si>
+    <t>强制性</t>
+  </si>
+  <si>
+    <t>行政令</t>
+  </si>
+  <si>
+    <t>2.命令是最具权威性和强制性的公文</t>
+  </si>
+  <si>
+    <t>严肃性</t>
+  </si>
+  <si>
+    <t>任免令</t>
+  </si>
+  <si>
+    <t>3.通常是机关首长签发</t>
+  </si>
+  <si>
+    <t>限定性</t>
+  </si>
+  <si>
+    <t>嘉奖令</t>
+  </si>
+  <si>
+    <t>4.一般没有主送机关</t>
+  </si>
+  <si>
+    <t>公报</t>
+  </si>
+  <si>
+    <t>内容庄严</t>
+  </si>
+  <si>
+    <t>新闻公报</t>
+  </si>
+  <si>
+    <t>公布重要决定或重大事项的文书</t>
+  </si>
+  <si>
+    <t>形式多样</t>
+  </si>
+  <si>
+    <t>联合公报</t>
+  </si>
+  <si>
+    <t>使用习惯性</t>
+  </si>
+  <si>
+    <t>会议公报</t>
+  </si>
+  <si>
+    <t>党的会议</t>
+  </si>
+  <si>
+    <t>新闻性</t>
+  </si>
+  <si>
+    <t>统计公报</t>
+  </si>
+  <si>
+    <t>公开性</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>制发机关的限制性</t>
+  </si>
+  <si>
+    <t>向国内外宣布重要事项或法定事项</t>
+  </si>
+  <si>
+    <t>发布事项的重要性</t>
+  </si>
+  <si>
+    <t>宣布重要事项的公告</t>
+  </si>
+  <si>
+    <t>特此公告</t>
+  </si>
+  <si>
+    <t>发布范围的广泛性</t>
+  </si>
+  <si>
+    <t>宣布法定事项公告</t>
+  </si>
+  <si>
+    <t>现予公告</t>
+  </si>
+  <si>
+    <t>自然人死亡公告</t>
+  </si>
+  <si>
+    <t>发布方式的单一性</t>
+  </si>
+  <si>
+    <t>专业性公告</t>
+  </si>
+  <si>
+    <t>招标公告</t>
+  </si>
+  <si>
+    <t>通告</t>
+  </si>
+  <si>
+    <t>广泛性</t>
+  </si>
+  <si>
+    <t>在一定范围公布应当遵守或周知的事项</t>
+  </si>
+  <si>
+    <t>专业性</t>
+  </si>
+  <si>
+    <t>公安、交通、邮电、税务、工商管理、银行金融</t>
+  </si>
+  <si>
+    <t>停水停电查酒驾道路维修</t>
+  </si>
+  <si>
+    <t>公海演戏，通告船只绕行</t>
+  </si>
+  <si>
+    <t>意见</t>
+  </si>
+  <si>
+    <t>上下平</t>
+  </si>
+  <si>
+    <t>灵活性</t>
+  </si>
+  <si>
+    <t>适用于对重要问题提出见解和处理办法</t>
+  </si>
+  <si>
+    <t>建议性</t>
+  </si>
+  <si>
+    <t>多向性</t>
   </si>
 </sst>
 </file>
@@ -965,12 +1158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,7 +1188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,60 +1201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,7 +1224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1099,6 +1240,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1107,9 +1255,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1129,6 +1285,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1137,9 +1324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,7 +1355,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,67 +1463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,19 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,37 +1493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,25 +1517,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,16 +1559,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,17 +1577,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1424,9 +1599,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,178 +1646,169 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1965,523 +2157,523 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="19.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="14.4166666666667" style="3"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="13.3333333333333" style="3"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="19.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="14.4166666666667" style="6"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="13.3333333333333" style="6"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="10">
         <v>41015</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="11">
         <v>41091</v>
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="7"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="10">
         <v>41089</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="4:6">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="4:6">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="4:12">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="4:15">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:15">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="5:7">
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="6:7">
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="6:7">
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="4:16">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="5:7">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="5:7">
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="4:9">
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="5:9">
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="47" spans="5:12">
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="5:12">
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="6:9">
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" spans="5:7">
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="51" spans="5:7">
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="5:9">
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2527,618 +2719,618 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="6"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="3:20">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="6"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="6"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="N15" s="4" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="N16" s="4" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="N16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="N23" s="4" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="N24" s="4" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3161,8 +3353,8 @@
   <sheetPr/>
   <dimension ref="C1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -3268,7 +3460,7 @@
       </c>
     </row>
     <row r="15" spans="4:5">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>221</v>
       </c>
       <c r="E15" t="s">
@@ -3279,7 +3471,7 @@
       <c r="C16" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="4"/>
       <c r="E16" t="s">
         <v>224</v>
       </c>
@@ -3288,7 +3480,7 @@
       </c>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="1"/>
+      <c r="D17" s="4"/>
       <c r="E17" t="s">
         <v>226</v>
       </c>
@@ -3297,7 +3489,7 @@
       </c>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="1"/>
+      <c r="D18" s="4"/>
       <c r="E18" t="s">
         <v>228</v>
       </c>
@@ -3376,110 +3568,407 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D5:J14"/>
+  <dimension ref="A5:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="14.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="39.8333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="5:9">
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9">
-      <c r="D6" t="s">
         <v>247</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
       <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I6" t="s">
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="J13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="J14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="6:10">
-      <c r="F7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" t="s">
-        <v>252</v>
-      </c>
-      <c r="J7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8">
-      <c r="F8" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7">
-      <c r="F9" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="6:6">
-      <c r="F11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9">
-      <c r="D12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="6:6">
-      <c r="F13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="6:6">
-      <c r="F14" t="s">
-        <v>264</v>
+      <c r="D15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="J16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="J17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="J18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" t="s">
+        <v>307</v>
+      </c>
+      <c r="J26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" t="s">
+        <v>310</v>
+      </c>
+      <c r="J27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" t="s">
+        <v>313</v>
+      </c>
+      <c r="G28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" t="s">
+        <v>315</v>
+      </c>
+      <c r="J29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G18"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/sydw/2020上/考点/4-公文.xlsx
+++ b/sydw/2020上/考点/4-公文.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="3"/>
+    <workbookView windowWidth="11280" windowHeight="6870" tabRatio="832" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概念分类" sheetId="1" r:id="rId1"/>
-    <sheet name="行文规范" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="行文规范" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="391">
   <si>
     <t>法律依据</t>
   </si>
@@ -136,10 +137,13 @@
     <t>4.宣传教育作用</t>
   </si>
   <si>
+    <t>两告：报告、公告</t>
+  </si>
+  <si>
     <t>5.凭证依据作用</t>
   </si>
   <si>
-    <t>两告：报告、公告</t>
+    <t>三通：通知、通告、通报；</t>
   </si>
   <si>
     <t>分类</t>
@@ -311,9 +315,6 @@
     </r>
   </si>
   <si>
-    <t>三通：通知、通告、通报；</t>
-  </si>
-  <si>
     <t>专用公文</t>
   </si>
   <si>
@@ -383,18 +384,27 @@
     <t>一般秘密、损害</t>
   </si>
   <si>
+    <t>10年</t>
+  </si>
+  <si>
     <t>机密公文</t>
   </si>
   <si>
     <t>重要秘密、严重损害</t>
   </si>
   <si>
+    <t>20年</t>
+  </si>
+  <si>
     <t>绝密公文</t>
   </si>
   <si>
     <t>最重要密码、特别严重损害</t>
   </si>
   <si>
+    <t>30年</t>
+  </si>
+  <si>
     <t>按时间限制</t>
   </si>
   <si>
@@ -537,6 +547,195 @@
   </si>
   <si>
     <t>发行修订本，旧本失效</t>
+  </si>
+  <si>
+    <t>格式追求对称美</t>
+  </si>
+  <si>
+    <t>所有可以换行的地方，必要要求词意完整，换行不可拆词</t>
+  </si>
+  <si>
+    <t>最多22行，每行最多28个字</t>
+  </si>
+  <si>
+    <t>版外</t>
+  </si>
+  <si>
+    <t>是否必须</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>字号</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>要求</t>
+  </si>
+  <si>
+    <t>特殊备注</t>
+  </si>
+  <si>
+    <t>版头</t>
+  </si>
+  <si>
+    <t>份号</t>
+  </si>
+  <si>
+    <t>可无</t>
+  </si>
+  <si>
+    <t>左顶1</t>
+  </si>
+  <si>
+    <t>3号</t>
+  </si>
+  <si>
+    <t>6位数字</t>
+  </si>
+  <si>
+    <t>涉密公文应当标注份号</t>
+  </si>
+  <si>
+    <t>版心</t>
+  </si>
+  <si>
+    <t>密级和密年</t>
+  </si>
+  <si>
+    <t>左顶2</t>
+  </si>
+  <si>
+    <t>实体黑五星连接</t>
+  </si>
+  <si>
+    <t>紧急程度</t>
+  </si>
+  <si>
+    <t>左顶3</t>
+  </si>
+  <si>
+    <t>发文机关标志</t>
+  </si>
+  <si>
+    <t>必有</t>
+  </si>
+  <si>
+    <t>居中</t>
+  </si>
+  <si>
+    <t>1.不可有标点符号；2.联合发文，可只放主办，其他或简称或放在版纪</t>
+  </si>
+  <si>
+    <t>发</t>
+  </si>
+  <si>
+    <t>发文字号</t>
+  </si>
+  <si>
+    <t>机关</t>
+  </si>
+  <si>
+    <t>居中或居左</t>
+  </si>
+  <si>
+    <t>机关[发呈函无]</t>
+  </si>
+  <si>
+    <t>公文省份证号</t>
+  </si>
+  <si>
+    <t>呈/报</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>六角括号</t>
+  </si>
+  <si>
+    <t>同行文</t>
+  </si>
+  <si>
+    <t>顺序号</t>
+  </si>
+  <si>
+    <t>行文的发文字号居左空一字编排，与最后一个签发人姓名处在同一行</t>
+  </si>
+  <si>
+    <t>签发人</t>
+  </si>
+  <si>
+    <t>1.发文机关有几个就有几个签发人；2.每行最多写两个签发人，多了换行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>主体</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>发文机关</t>
+  </si>
+  <si>
+    <t>发文机关【关于】事由【的】文种</t>
+  </si>
+  <si>
+    <t>标点符号</t>
+  </si>
+  <si>
+    <t>引号</t>
+  </si>
+  <si>
+    <t>“”</t>
+  </si>
+  <si>
+    <t>事由</t>
+  </si>
+  <si>
+    <t>书名号</t>
+  </si>
+  <si>
+    <t>《》</t>
+  </si>
+  <si>
+    <t>国务院关于更改新华通讯社香港分社、澳门分社名称的通知</t>
+  </si>
+  <si>
+    <t>文种</t>
+  </si>
+  <si>
+    <t>顿号</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>只能出现在事由中</t>
+  </si>
+  <si>
+    <t>发文机关中出现并列成份，应删除顿号，改为空一格。</t>
+  </si>
+  <si>
+    <t>四川省人民政府 云南省人民政府关于XX 的通知</t>
+  </si>
+  <si>
+    <t>[关于+的]</t>
+  </si>
+  <si>
+    <t>完整的标题有且只有一个“关于”</t>
+  </si>
+  <si>
+    <t>坚决不能有逗号</t>
+  </si>
+  <si>
+    <t>版纪</t>
   </si>
   <si>
     <t>行文关系</t>
@@ -1158,12 +1357,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,11 +1378,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.55"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.55"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1195,7 +1413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,29 +1421,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,22 +1436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,6 +1466,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1301,21 +1526,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1324,8 +1534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,7 +1566,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,49 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,7 +1662,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,67 +1734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,36 +1750,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1549,26 +1760,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1599,6 +1801,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1611,23 +1822,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,16 +1842,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1664,137 +1875,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1805,9 +2016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1818,6 +2026,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,7 +2037,7 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2149,532 +2359,541 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P52"/>
+  <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="19.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="14.4166666666667" style="6"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="13.3333333333333" style="6"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="19.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="14.4166666666667" style="5"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="13.3333333333333" style="5"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="11">
         <v>41015</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="12">
         <v>41091</v>
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="9"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>41089</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="4:6">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="4:6">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="3:9">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="4:12">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="6" t="s">
+    <row r="17" spans="4:8">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="4:15">
-      <c r="D18" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="6" t="s">
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="3:15">
-      <c r="C19" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="6" t="s">
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="G19" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="5:7">
-      <c r="E29" s="6" t="s">
+    <row r="29" spans="5:9">
+      <c r="E29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="6:7">
-      <c r="F30" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="6" t="s">
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="6:7">
-      <c r="F31" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="4:16">
-      <c r="D32" s="6" t="s">
+    <row r="31" spans="6:9">
+      <c r="F31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="6" t="s">
+    </row>
+    <row r="32" spans="4:11">
+      <c r="D32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="G32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>80</v>
+      <c r="E33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>82</v>
+      <c r="E34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>85</v>
+      <c r="D35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>87</v>
+      <c r="E36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>89</v>
+      <c r="E37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>91</v>
+      <c r="E38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>93</v>
+      <c r="E39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="5:7">
-      <c r="E40" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>95</v>
+      <c r="E40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="5:7">
-      <c r="E41" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>97</v>
+      <c r="E41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>99</v>
+      <c r="D42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="6" t="s">
-        <v>100</v>
+      <c r="E43" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9">
-      <c r="D45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="5:9">
-      <c r="E46" s="6" t="s">
+    <row r="45" spans="4:8">
+      <c r="D45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="5:12">
-      <c r="E47" s="6" t="s">
+    <row r="46" spans="5:8">
+      <c r="E46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11">
+      <c r="E47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11">
+      <c r="E48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="H49" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12">
-      <c r="E48" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9">
-      <c r="F49" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="51" spans="5:7">
-      <c r="E51" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9">
-      <c r="E52" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>121</v>
+      <c r="E51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
+      <c r="E52" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2707,6 +2926,292 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10">
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="12:13">
+      <c r="L12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13">
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11">
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>176</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>180</v>
+      </c>
+      <c r="P21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17">
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:T25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -2719,618 +3224,618 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20">
-      <c r="C2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="8"/>
+      <c r="E2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="T3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="3:20">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="8"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="S8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="N15" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="N23" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="N24" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3348,7 +3853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C1:K25"/>
@@ -3361,10 +3866,10 @@
   <sheetData>
     <row r="1" spans="3:4">
       <c r="C1" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="3:4">
@@ -3372,188 +3877,188 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="D5" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="4:5">
-      <c r="D15" s="4" t="s">
-        <v>221</v>
+      <c r="D15" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="4"/>
+      <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="4"/>
+      <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="H20" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="K20" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="D22" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3565,12 +4070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A5:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3584,373 +4089,373 @@
   <sheetData>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="J13" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="J14" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="J15" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="G16" s="3"/>
       <c r="J16" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="G17" s="3"/>
       <c r="J17" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="G18" s="3"/>
       <c r="J18" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="G19" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="J21" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="G24" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="E26" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="J26" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="J27" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="G28" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="J29" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="G32" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/sydw/2020上/考点/4-公文.xlsx
+++ b/sydw/2020上/考点/4-公文.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11280" windowHeight="6870" tabRatio="832" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="11500" windowHeight="7430" tabRatio="832" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概念分类" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="480">
   <si>
     <t>法律依据</t>
   </si>
@@ -669,7 +669,7 @@
     <t>签发人</t>
   </si>
   <si>
-    <t>1.发文机关有几个就有几个签发人；2.每行最多写两个签发人，多了换行</t>
+    <t>1.发文机关有几个就有几个签发人；2.每行最多写两个签发人，多了换行。上行文应当。</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -735,9 +735,249 @@
     <t>坚决不能有逗号</t>
   </si>
   <si>
+    <t>空格号</t>
+  </si>
+  <si>
+    <t>机关有多个</t>
+  </si>
+  <si>
+    <t>主送机关</t>
+  </si>
+  <si>
+    <t>排序原则</t>
+  </si>
+  <si>
+    <t>先高后低、</t>
+  </si>
+  <si>
+    <t>先外后内、</t>
+  </si>
+  <si>
+    <t>党政军群</t>
+  </si>
+  <si>
+    <t>正文</t>
+  </si>
+  <si>
+    <t>层次结构</t>
+  </si>
+  <si>
+    <t>一、   （一）     1.       （1）</t>
+  </si>
+  <si>
+    <t>引用公文</t>
+  </si>
+  <si>
+    <t>先引用标题《》，后引用发文字号()</t>
+  </si>
+  <si>
+    <t>开头用语</t>
+  </si>
+  <si>
+    <t>时间式</t>
+  </si>
+  <si>
+    <t>近期、最近</t>
+  </si>
+  <si>
+    <t>原因式</t>
+  </si>
+  <si>
+    <t>由于、随着、鉴于</t>
+  </si>
+  <si>
+    <t>目的式</t>
+  </si>
+  <si>
+    <t>为了、为</t>
+  </si>
+  <si>
+    <t>根据式</t>
+  </si>
+  <si>
+    <t>根据、依照、遵照</t>
+  </si>
+  <si>
+    <t>引文式</t>
+  </si>
+  <si>
+    <t>你单位《xxx》(xxx）收悉</t>
+  </si>
+  <si>
+    <t>结尾用语</t>
+  </si>
+  <si>
+    <t>特此+文种</t>
+  </si>
+  <si>
+    <t>比如：特此批复；特此命令</t>
+  </si>
+  <si>
+    <t>必须</t>
+  </si>
+  <si>
+    <t>请示</t>
+  </si>
+  <si>
+    <t>多是询问语气</t>
+  </si>
+  <si>
+    <t>当否，请批示；妥否，请批复</t>
+  </si>
+  <si>
+    <t>特此函询/达；如蒙惠允，不胜感荷。</t>
+  </si>
+  <si>
+    <t>附件：xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>附件说明</t>
+  </si>
+  <si>
+    <t>使用1.</t>
+  </si>
+  <si>
+    <t>只有一个附件不需要顺序号</t>
+  </si>
+  <si>
+    <t>结尾没有标点符号</t>
+  </si>
+  <si>
+    <t>署名</t>
+  </si>
+  <si>
+    <t>(成文)日期</t>
+  </si>
+  <si>
+    <t>距右四个字距离</t>
+  </si>
+  <si>
+    <t>签发日期或会议通过时并制发时间</t>
+  </si>
+  <si>
+    <t>联合发布时以最后一个签发日期作落款</t>
+  </si>
+  <si>
+    <t>印章</t>
+  </si>
+  <si>
+    <t>上不压正文，下压日期</t>
+  </si>
+  <si>
+    <t>非全部公文都要红印章。电报和普发性公文</t>
+  </si>
+  <si>
+    <t>联合行文全部机关都要署名和盖章</t>
+  </si>
+  <si>
+    <t>附注</t>
+  </si>
+  <si>
+    <t>此件公开传达、此件发往县同级</t>
+  </si>
+  <si>
     <t>版纪</t>
   </si>
   <si>
+    <t>主送</t>
+  </si>
+  <si>
+    <t>抄送</t>
+  </si>
+  <si>
+    <t>引发机关</t>
+  </si>
+  <si>
+    <t>印发机关一般是发文机关的办公厅(室)</t>
+  </si>
+  <si>
+    <t>印发日期</t>
+  </si>
+  <si>
+    <t>2012年7月1日印发</t>
+  </si>
+  <si>
+    <t>版纪中没有“主题词”</t>
+  </si>
+  <si>
+    <t>抄送机关指需要了解、知晓公文内容的机关</t>
+  </si>
+  <si>
+    <t>印发在成文之后</t>
+  </si>
+  <si>
+    <t>页码</t>
+  </si>
+  <si>
+    <t>单页码居右</t>
+  </si>
+  <si>
+    <t>居右</t>
+  </si>
+  <si>
+    <t>双页码居左</t>
+  </si>
+  <si>
+    <t>居左</t>
+  </si>
+  <si>
+    <t>联系人/联系方式</t>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>我、本</t>
+  </si>
+  <si>
+    <t>我校、本校</t>
+  </si>
+  <si>
+    <t>第二</t>
+  </si>
+  <si>
+    <t>上/平行文</t>
+  </si>
+  <si>
+    <t>贵单位</t>
+  </si>
+  <si>
+    <t>你单位</t>
+  </si>
+  <si>
+    <t>人称</t>
+  </si>
+  <si>
+    <t>第三</t>
+  </si>
+  <si>
+    <t>该单位</t>
+  </si>
+  <si>
+    <t>字体字号总结</t>
+  </si>
+  <si>
+    <t>一般：3 号仿宋</t>
+  </si>
+  <si>
+    <t>密级、紧急程度：3 号黑体</t>
+  </si>
+  <si>
+    <t>发文机关标志：小标宋体</t>
+  </si>
+  <si>
+    <t>标题：2 号小标宋体</t>
+  </si>
+  <si>
+    <t>签发人姓名：3 号楷体</t>
+  </si>
+  <si>
+    <t>签发人三字：3 号仿宋</t>
+  </si>
+  <si>
+    <t>抄送、印发机关和日期：4 号仿宋</t>
+  </si>
+  <si>
     <t>行文关系</t>
   </si>
   <si>
@@ -1024,9 +1264,6 @@
   </si>
   <si>
     <t>征询用语</t>
-  </si>
-  <si>
-    <t>结尾用语</t>
   </si>
   <si>
     <t>语句规范</t>
@@ -1280,7 +1517,49 @@
     <t>制发机关的限制性</t>
   </si>
   <si>
-    <t>向国内外宣布重要事项或法定事项</t>
+    <r>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>国内外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宣布重要事项或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事项</t>
+    </r>
   </si>
   <si>
     <t>发布事项的重要性</t>
@@ -1319,7 +1598,29 @@
     <t>广泛性</t>
   </si>
   <si>
-    <t>在一定范围公布应当遵守或周知的事项</t>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一定范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公布应当遵守或周知的事项</t>
+    </r>
   </si>
   <si>
     <t>专业性</t>
@@ -1350,6 +1651,36 @@
   </si>
   <si>
     <t>多向性</t>
+  </si>
+  <si>
+    <t>奖励对象</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>层次特别高</t>
+  </si>
+  <si>
+    <t>完成“急难险重”任务</t>
+  </si>
+  <si>
+    <t>层次特别高。通常不是直接上级机关</t>
+  </si>
+  <si>
+    <t>完成“长期艰苦工作”</t>
+  </si>
+  <si>
+    <t>劳模、改革先锋</t>
+  </si>
+  <si>
+    <t>通报</t>
+  </si>
+  <si>
+    <t>层次不受限，常是直接上级机关</t>
+  </si>
+  <si>
+    <t>典型事件、情况；具有教育性、说理性</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1688,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1399,13 +1730,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1413,15 +1737,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,7 +1774,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1466,45 +1819,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1528,7 +1845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1537,6 +1854,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1566,25 +1897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,6 +1921,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1614,7 +1945,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,127 +2065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,21 +2088,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1799,6 +2115,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1819,30 +2165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1857,155 +2179,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2016,6 +2347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2026,8 +2358,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2367,532 +2701,532 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="19.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="14.4166666666667" style="5"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="13.3333333333333" style="5"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="19.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="14.4166666666667" style="6"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="13.3333333333333" style="6"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="14">
         <v>41015</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="15">
         <v>41091</v>
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="10"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="14">
         <v>41089</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="4:6">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="4:6">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="4:12">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="5:9">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="6:9">
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="6:9">
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="4:11">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="5:7">
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="5:7">
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="5:8">
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="5:11">
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="5:11">
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="49" spans="6:8">
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="5:7">
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="51" spans="5:7">
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" spans="5:8">
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2926,13 +3260,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="13.3333333333333"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -2993,7 +3330,7 @@
       <c r="I6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3093,7 +3430,7 @@
       <c r="D15" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="10" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3155,7 +3492,7 @@
       <c r="O20" t="s">
         <v>176</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3175,10 +3512,10 @@
       <c r="P21" t="s">
         <v>181</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3192,12 +3529,389 @@
       <c r="N22" t="s">
         <v>186</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="14:16">
+      <c r="N23" t="s">
         <v>187</v>
+      </c>
+      <c r="P23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="9">
+        <v>41091</v>
+      </c>
+      <c r="G45" t="s">
+        <v>226</v>
+      </c>
+      <c r="I45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62">
+        <v>13579</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63">
+        <v>2468</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6">
+      <c r="E77" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3224,618 +3938,618 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20">
-      <c r="C2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="7"/>
+      <c r="E2" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="T3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="3:20">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="S8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3866,10 +4580,10 @@
   <sheetData>
     <row r="1" spans="3:4">
       <c r="C1" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="D1" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="3:4">
@@ -3877,188 +4591,188 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="D5" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="4:5">
       <c r="D15" s="1" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="G17" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="F19" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="H19" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="H20" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="K20" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="D22" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="G22" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4073,10 +4787,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:J34"/>
+  <dimension ref="A5:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -4089,7 +4803,7 @@
   <sheetData>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -4098,364 +4812,412 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="G5" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="J12" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="J13" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="J14" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="J15" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="D16" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="G16" s="3"/>
       <c r="J16" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="G17" s="3"/>
       <c r="J17" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="G18" s="3"/>
       <c r="J18" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="G19" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="J21" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="D22" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G24" t="s">
-        <v>367</v>
+        <v>445</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="E25" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="E26" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="J26" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="J27" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>379</v>
-      </c>
-      <c r="G28" t="s">
-        <v>380</v>
+        <v>458</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="J29" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="C32" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="G32" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>390</v>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>471</v>
+      </c>
+      <c r="C43" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>474</v>
+      </c>
+      <c r="D44" t="s">
+        <v>475</v>
+      </c>
+      <c r="F44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>477</v>
+      </c>
+      <c r="C45" t="s">
+        <v>478</v>
+      </c>
+      <c r="D45" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/sydw/2020上/考点/4-公文.xlsx
+++ b/sydw/2020上/考点/4-公文.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11500" windowHeight="7430" tabRatio="832" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="832" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概念分类" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="行文规范" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="670">
   <si>
     <t>法律依据</t>
   </si>
@@ -1206,6 +1207,48 @@
     <t>同级机关可以联合行文</t>
   </si>
   <si>
+    <t>规范性</t>
+  </si>
+  <si>
+    <t>规定、条例、章程、办法、细则</t>
+  </si>
+  <si>
+    <t>指令性</t>
+  </si>
+  <si>
+    <t>命令、决定</t>
+  </si>
+  <si>
+    <t>内在属性</t>
+  </si>
+  <si>
+    <t>指导性</t>
+  </si>
+  <si>
+    <t>批复、意见</t>
+  </si>
+  <si>
+    <t>知照性</t>
+  </si>
+  <si>
+    <t>通知、通报、公报</t>
+  </si>
+  <si>
+    <t>公布性</t>
+  </si>
+  <si>
+    <t>公告、通告</t>
+  </si>
+  <si>
+    <t>报请性</t>
+  </si>
+  <si>
+    <t>报告、请示、议案</t>
+  </si>
+  <si>
+    <t>记录性</t>
+  </si>
+  <si>
     <t>基本要求</t>
   </si>
   <si>
@@ -1375,9 +1418,6 @@
   </si>
   <si>
     <t>程序性：因为必须会议</t>
-  </si>
-  <si>
-    <t>指导性</t>
   </si>
   <si>
     <t>阐述性决议</t>
@@ -1518,6 +1558,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>向</t>
     </r>
     <r>
@@ -1599,6 +1646,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -1682,18 +1736,549 @@
   <si>
     <t>典型事件、情况；具有教育性、说理性</t>
   </si>
+  <si>
+    <t>法定公文</t>
+  </si>
+  <si>
+    <t>党政机关公文</t>
+  </si>
+  <si>
+    <t>普通事物公文</t>
+  </si>
+  <si>
+    <t>普通社会组织的公文</t>
+  </si>
+  <si>
+    <t>司法</t>
+  </si>
+  <si>
+    <t>判决书</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>军事命令</t>
+  </si>
+  <si>
+    <t>外交</t>
+  </si>
+  <si>
+    <t>国书</t>
+  </si>
+  <si>
+    <t>命(令)</t>
+  </si>
+  <si>
+    <t>两决两公三个通</t>
+  </si>
+  <si>
+    <t>法规依据</t>
+  </si>
+  <si>
+    <t>2012年7月1日</t>
+  </si>
+  <si>
+    <t>实施</t>
+  </si>
+  <si>
+    <t>15中公文</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>基本表达方式</t>
+  </si>
+  <si>
+    <t>叙述、议论、说明</t>
+  </si>
+  <si>
+    <t>叙述是最基本、最主要的方式</t>
+  </si>
+  <si>
+    <t>语言特征</t>
+  </si>
+  <si>
+    <t>庄重、准确、简明、朴实、精炼、严谨、规范</t>
+  </si>
+  <si>
+    <t>切勿“形象生动”、浮夸、辞藻绚丽</t>
+  </si>
+  <si>
+    <t>报告</t>
+  </si>
+  <si>
+    <t>一命纪函两yi</t>
+  </si>
+  <si>
+    <t>公文特点</t>
+  </si>
+  <si>
+    <t>由法定的作者</t>
+  </si>
+  <si>
+    <t>发文机关、机关领导</t>
+  </si>
+  <si>
+    <t>有规范的格式</t>
+  </si>
+  <si>
+    <t>批复</t>
+  </si>
+  <si>
+    <t>有特定的效用</t>
+  </si>
+  <si>
+    <t>有法定的权威性</t>
+  </si>
+  <si>
+    <t>议案</t>
+  </si>
+  <si>
+    <t>有规定的处理程序</t>
+  </si>
+  <si>
+    <t>有相应的时效</t>
+  </si>
+  <si>
+    <t>与《国家行政机关公文处理办法》对比</t>
+  </si>
+  <si>
+    <t>党委文种</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>新增决议和公报</t>
+  </si>
+  <si>
+    <t>数字型的都是开头第一个字</t>
+  </si>
+  <si>
+    <t>机关公文</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>废3立4；废指示、条例、规定；</t>
+  </si>
+  <si>
+    <t>一条命</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>立命令、通告、公告、议案</t>
+  </si>
+  <si>
+    <t>两yi公决</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>两亿公爵</t>
+  </si>
+  <si>
+    <t>议案、意见；公报、公告；决议、决定；</t>
+  </si>
+  <si>
+    <t>三个神通</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>通知、通报、通告</t>
+  </si>
+  <si>
+    <t>纪要报告和请示</t>
+  </si>
+  <si>
+    <t>既要报告和请示</t>
+  </si>
+  <si>
+    <t>纪要、报告、请示</t>
+  </si>
+  <si>
+    <t>函要等批复</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>还要等批复</t>
+  </si>
+  <si>
+    <t>函、批复</t>
+  </si>
+  <si>
+    <t>会议讨论通过的重大决策事项</t>
+  </si>
+  <si>
+    <t>对重要事项作出决策和部署、</t>
+  </si>
+  <si>
+    <t>不可转发</t>
+  </si>
+  <si>
+    <t>奖惩有关单位和人员、</t>
+  </si>
+  <si>
+    <t>变更或撤销下级机关不适当的决定事项</t>
+  </si>
+  <si>
+    <t>公布行政法规和规章、</t>
+  </si>
+  <si>
+    <t>宣布施行重大强制性措施、</t>
+  </si>
+  <si>
+    <t>批准授予和晋升衔级、</t>
+  </si>
+  <si>
+    <t>嘉奖有关单位和人员</t>
+  </si>
+  <si>
+    <t>公布重要决定或重大事项</t>
+  </si>
+  <si>
+    <t>《中国共产党第十八届中央委员会第一次全体会议公报》</t>
+  </si>
+  <si>
+    <t>向国内外宣布重要事项、</t>
+  </si>
+  <si>
+    <t>或者法定事项</t>
+  </si>
+  <si>
+    <t>在一定范围内公布应当遵守或者周知的事项</t>
+  </si>
+  <si>
+    <t>对重大问题提出见解和处理方法</t>
+  </si>
+  <si>
+    <t>《教育部中央编办 财政部 人力资源社会保障部关于加强幼儿教师队伍建设的意见》</t>
+  </si>
+  <si>
+    <t>批转下级公文、</t>
+  </si>
+  <si>
+    <t>转发上平机关的公文传达事项、</t>
+  </si>
+  <si>
+    <t>任免人员</t>
+  </si>
+  <si>
+    <t>干部任免或聘用</t>
+  </si>
+  <si>
+    <t>办公室改电话</t>
+  </si>
+  <si>
+    <t>表彰先进、</t>
+  </si>
+  <si>
+    <t>《xxx特大交通事故的通报》</t>
+  </si>
+  <si>
+    <t>批评错误、</t>
+  </si>
+  <si>
+    <t>传达重要精神或告知重要情况</t>
+  </si>
+  <si>
+    <t>向上级汇报工作、反应情况、回复上级问题</t>
+  </si>
+  <si>
+    <t>向上级请求指示、批准等</t>
+  </si>
+  <si>
+    <t>《公安部关于将12月2日设立为“全国交通安全日”的请示》</t>
+  </si>
+  <si>
+    <t>答复下级请示事项</t>
+  </si>
+  <si>
+    <t>各级政府依法向各级人大或人大常委提请审议事项</t>
+  </si>
+  <si>
+    <t>《国务院关于提请审议&lt;中华人民共和国劳动法(草案)的议案》</t>
+  </si>
+  <si>
+    <t>记载会议主要情况和议定事项</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>内容性质</t>
+  </si>
+  <si>
+    <t>发文方式</t>
+  </si>
+  <si>
+    <t>国内外或法定</t>
+  </si>
+  <si>
+    <t>一般等级很高</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>一般新闻媒体发布</t>
+  </si>
+  <si>
+    <t>一定范围</t>
+  </si>
+  <si>
+    <t>各级单位皆可</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>新闻媒体外还可以张贴</t>
+  </si>
+  <si>
+    <t>请示缘由，提出请示的原因和理由</t>
+  </si>
+  <si>
+    <t>请示事项</t>
+  </si>
+  <si>
+    <t>请示结束语</t>
+  </si>
+  <si>
+    <t>以上请示妥否，请批示；当否，请批复；当否，请于审核批准。</t>
+  </si>
+  <si>
+    <t>公文18要素</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>上下间隔</t>
+  </si>
+  <si>
+    <t>格式</t>
+  </si>
+  <si>
+    <t>个性</t>
+  </si>
+  <si>
+    <t>涉密公文应当标注</t>
+  </si>
+  <si>
+    <t>000001或000010</t>
+  </si>
+  <si>
+    <t>必须6位阿拉伯数字</t>
+  </si>
+  <si>
+    <t>密级和期限</t>
+  </si>
+  <si>
+    <t>机密或机密。。。</t>
+  </si>
+  <si>
+    <t>秘密、机密、绝密</t>
+  </si>
+  <si>
+    <t>特急</t>
+  </si>
+  <si>
+    <t>特急、加急</t>
+  </si>
+  <si>
+    <t>平急、加急、特急、特提</t>
+  </si>
+  <si>
+    <t>[发文机关]+[文件]???</t>
+  </si>
+  <si>
+    <t>发文机关标识下空两行。居中或居右空一字</t>
+  </si>
+  <si>
+    <t>发文机关+年份+发文顺序号</t>
+  </si>
+  <si>
+    <t>年份用六角括号；顺序号是数字不加虚位、不加“第”</t>
+  </si>
+  <si>
+    <t>上行文应当标注</t>
+  </si>
+  <si>
+    <t>居右空一字</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2号小标宋体</t>
+  </si>
+  <si>
+    <t>横线下空两行</t>
+  </si>
+  <si>
+    <t>[发文机关]关于[事由]的文种</t>
+  </si>
+  <si>
+    <t>标题下空一行，左定格，带冒号</t>
+  </si>
+  <si>
+    <t>主送机关过多放在版记中</t>
+  </si>
+  <si>
+    <t>3号仿宋体</t>
+  </si>
+  <si>
+    <t>正文下空一行左空二字</t>
+  </si>
+  <si>
+    <t>附件：</t>
+  </si>
+  <si>
+    <t>多个时，阿拉伯数字标序号；结尾不加标点符号；附件不加书名号</t>
+  </si>
+  <si>
+    <t>发文机关署名</t>
+  </si>
+  <si>
+    <t>成文日期</t>
+  </si>
+  <si>
+    <t>正文下空两行右空四字</t>
+  </si>
+  <si>
+    <t>2020年7月16日</t>
+  </si>
+  <si>
+    <t>普发性公文和电报不盖章</t>
+  </si>
+  <si>
+    <t>不压正文，压机关和日期</t>
+  </si>
+  <si>
+    <t>居左空二字</t>
+  </si>
+  <si>
+    <t>必须在圆括号内</t>
+  </si>
+  <si>
+    <t>联系方式等</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>版记</t>
+  </si>
+  <si>
+    <t>抄送机关</t>
+  </si>
+  <si>
+    <t>左空一字</t>
+  </si>
+  <si>
+    <t>抄送：机关名称。抄送机关之间用逗号隔开，结尾标句号。</t>
+  </si>
+  <si>
+    <t>印发机关</t>
+  </si>
+  <si>
+    <t>4号仿宋体</t>
+  </si>
+  <si>
+    <t>右空一字</t>
+  </si>
+  <si>
+    <t>2020年7月16日 印发</t>
+  </si>
+  <si>
+    <t>板外</t>
+  </si>
+  <si>
+    <t>单页居右，双叶居左。这个是翻书习惯。</t>
+  </si>
+  <si>
+    <t>一般由三部分组成</t>
+  </si>
+  <si>
+    <t>原由+事项+结尾</t>
+  </si>
+  <si>
+    <t>引文</t>
+  </si>
+  <si>
+    <t>《引文》(发文字号)</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>年月日能全则全。2005年不可简写05年</t>
+  </si>
+  <si>
+    <t>层次结果</t>
+  </si>
+  <si>
+    <t>“一、”，“(一)”，“1.”，“(1)”</t>
+  </si>
+  <si>
+    <t>联合行文一般是同级的机关。</t>
+  </si>
+  <si>
+    <t>政府部门与下一级政府这是同级的哦</t>
+  </si>
+  <si>
+    <t>联合上报的公文，可以由主办机关加盖印章；</t>
+  </si>
+  <si>
+    <t>联合下发的公文，发文机关都应加盖印章。</t>
+  </si>
+  <si>
+    <t>印章之间不可相交、相切。</t>
+  </si>
+  <si>
+    <t>最后一个印章居中下压成文日期</t>
+  </si>
+  <si>
+    <t>当排版后剩的空白不足容下印章、签发人、成文日期时，可调整行距、字距等措施解决？</t>
+  </si>
+  <si>
+    <t>附件应与公文正文一起装订</t>
+  </si>
+  <si>
+    <t>附件作上角第一行定格标识“附件”</t>
+  </si>
+  <si>
+    <t>附件有序号的，应按序号前后一致(序号和名称一致)</t>
+  </si>
+  <si>
+    <t>附件应该在正文之后，成文日期之前</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,6 +2289,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1730,6 +2321,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1737,29 +2343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1774,22 +2365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1814,6 +2390,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1851,21 +2457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1897,13 +2488,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,163 +2662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,6 +2679,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2115,17 +2721,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2145,11 +2745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,21 +2767,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2194,10 +2785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2215,129 +2806,133 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2359,9 +2954,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2371,7 +2965,7 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2701,532 +3295,532 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="19.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="14.4166666666667" style="6"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="13.3333333333333" style="6"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="3" width="9" style="10"/>
+    <col min="4" max="4" width="19.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="14.4166666666667" style="10"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="13.3333333333333" style="10"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="17">
         <v>41015</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="18">
         <v>41091</v>
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="13"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="17">
         <v>41089</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="4:6">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="4:6">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:6">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="4:12">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="5:9">
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="6:9">
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="6:9">
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="4:11">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="5:7">
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="5:7">
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="5:8">
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="5:11">
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="5:11">
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="49" spans="6:8">
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="5:7">
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="51" spans="5:7">
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" spans="5:8">
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3262,8 +3856,8 @@
   <sheetPr/>
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -3312,7 +3906,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C6" t="s">
@@ -3330,7 +3924,7 @@
       <c r="I6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="14" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3338,7 +3932,7 @@
       <c r="A7" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>143</v>
       </c>
@@ -3353,7 +3947,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>146</v>
       </c>
@@ -3430,7 +4024,7 @@
       <c r="D15" t="s">
         <v>162</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3492,7 +4086,7 @@
       <c r="O20" t="s">
         <v>176</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3512,10 +4106,10 @@
       <c r="P21" t="s">
         <v>181</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3529,8 +4123,8 @@
       <c r="N22" t="s">
         <v>186</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="14:16">
       <c r="N23" t="s">
@@ -3707,7 +4301,7 @@
       <c r="E45" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="13">
         <v>41091</v>
       </c>
       <c r="G45" t="s">
@@ -3875,42 +4469,42 @@
       </c>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="14" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="14" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="14" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3926,10 +4520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:T25"/>
+  <dimension ref="C2:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -3938,618 +4532,685 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="3:20">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" spans="3:20">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6" t="s">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="N15" s="6" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="6" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="N16" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="N23" s="6" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="N23" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="N24" s="6" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="N24" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4573,17 +5234,17 @@
   <dimension ref="C1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="3:4">
       <c r="C1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="3:4">
@@ -4591,78 +5252,78 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="D5" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="I5" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="4:4">
@@ -4672,107 +5333,107 @@
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="4:5">
-      <c r="D15" s="1" t="s">
-        <v>366</v>
+      <c r="D15" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>368</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>382</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="E16" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F16" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="1"/>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="1"/>
+      <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G18" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H19" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H20" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="K20" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="D22" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E22" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="G22" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="G24" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4789,8 +5450,8 @@
   <sheetPr/>
   <dimension ref="A5:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -4812,364 +5473,364 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F5" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>394</v>
+      <c r="A6" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="G6" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="H7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:10">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="J12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="J13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="J14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" t="s">
         <v>409</v>
       </c>
-      <c r="D12" t="s">
-        <v>410</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="J12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>401</v>
-      </c>
-      <c r="D13" t="s">
-        <v>414</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="J13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="J14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" t="s">
-        <v>395</v>
-      </c>
       <c r="D15" t="s">
-        <v>420</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>421</v>
+        <v>433</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="J15" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>437</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="J16" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>440</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="J17" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>430</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>443</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="J18" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>394</v>
+      <c r="A19" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="G19" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="D20" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="J21" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>394</v>
+      <c r="A24" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="C24" t="s">
-        <v>445</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>446</v>
+        <v>458</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D26" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E26" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="J26" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D27" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="J27" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C28" t="s">
-        <v>458</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>459</v>
+        <v>471</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="J29" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="C32" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="G32" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="3:4">
@@ -5177,47 +5838,46 @@
         <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="C43" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D43" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F43" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>408</v>
-      </c>
-      <c r="B44"/>
+        <v>421</v>
+      </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D44" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F44" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="C45" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D45" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5239,4 +5899,1004 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:R121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="10:13">
+      <c r="J7" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="10:13">
+      <c r="J8" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="10:13">
+      <c r="J10" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="D13" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="D15" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13">
+      <c r="D16" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16">
+      <c r="E24" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="11:16">
+      <c r="K25" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="11:16">
+      <c r="K26" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="11:16">
+      <c r="K27" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="3"/>
+      <c r="D43" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="3"/>
+      <c r="D45" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="3"/>
+      <c r="D47" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3"/>
+      <c r="D50" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="3"/>
+      <c r="D55" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="3"/>
+      <c r="D57" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="3"/>
+      <c r="D58" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="D78" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="79" spans="7:15">
+      <c r="G79" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15">
+      <c r="E80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15">
+      <c r="C81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18">
+      <c r="B82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13">
+      <c r="E83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84" spans="5:15">
+      <c r="E84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11">
+      <c r="E85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="87" spans="5:15">
+      <c r="E87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="E88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="5:15">
+      <c r="E89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13">
+      <c r="E91" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="92" spans="5:15">
+      <c r="E92" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="5:15">
+      <c r="E93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13">
+      <c r="C95" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11">
+      <c r="E96" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13">
+      <c r="E97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7">
+      <c r="D101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
+      <c r="E103" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7">
+      <c r="E104" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7">
+      <c r="D108" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sydw/2020上/考点/4-公文.xlsx
+++ b/sydw/2020上/考点/4-公文.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="832" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="11720" windowHeight="7430" tabRatio="832" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="概念分类" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="697">
   <si>
     <t>法律依据</t>
   </si>
@@ -1153,6 +1153,9 @@
     <t>一般不得越级行文。特殊情况越级的要抄送被越级的机关(不是必须，举报啥的就不用了)</t>
   </si>
   <si>
+    <t>7.为使文件精神尽快传给群众，采用电视电脑电话广播报刊等方式行文</t>
+  </si>
+  <si>
     <t>上行文规则</t>
   </si>
   <si>
@@ -1788,6 +1791,12 @@
     <t>通知</t>
   </si>
   <si>
+    <t>公文原则</t>
+  </si>
+  <si>
+    <t>实事求是、准确规范、精简高效、安全保密</t>
+  </si>
+  <si>
     <t>基本表达方式</t>
   </si>
   <si>
@@ -1842,6 +1851,39 @@
     <t>有相应的时效</t>
   </si>
   <si>
+    <t>起草</t>
+  </si>
+  <si>
+    <t>公文处理</t>
+  </si>
+  <si>
+    <t>拟制</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>办理</t>
+  </si>
+  <si>
+    <t>收文办理</t>
+  </si>
+  <si>
+    <t>签收、登记、初审、承办、传阅、催办、答复</t>
+  </si>
+  <si>
+    <t>发文办理</t>
+  </si>
+  <si>
+    <t>复核、登记、印制、核发</t>
+  </si>
+  <si>
+    <t>整理归档</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
     <t>与《国家行政机关公文处理办法》对比</t>
   </si>
   <si>
@@ -2266,6 +2308,45 @@
   </si>
   <si>
     <t>附件应该在正文之后，成文日期之前</t>
+  </si>
+  <si>
+    <t>签发人过多，每行两个。版本号与最后一行平行</t>
+  </si>
+  <si>
+    <t>公文确定密级之前，按拟定的密级进行保密</t>
+  </si>
+  <si>
+    <t>确密之后，按对应密级严格管理</t>
+  </si>
+  <si>
+    <t>绝密公文应当由专人管理</t>
+  </si>
+  <si>
+    <t>变更密级需要原定级机关或其上级作决定</t>
+  </si>
+  <si>
+    <t>绝密公文一般不得复制、汇编，如需要，需发文机关或其上级批准</t>
+  </si>
+  <si>
+    <t>需要被清退的公文</t>
+  </si>
+  <si>
+    <t>1.绝密公文</t>
+  </si>
+  <si>
+    <t>2.有重大错漏的公文</t>
+  </si>
+  <si>
+    <t>3.被命令撤销的公文</t>
+  </si>
+  <si>
+    <t>4.仅供征求意见或审阅的公文</t>
+  </si>
+  <si>
+    <t>5.未经本人审阅的领导人的讲话稿</t>
+  </si>
+  <si>
+    <t>6.发文机关指定清退的公文</t>
   </si>
 </sst>
 </file>
@@ -2343,6 +2424,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2350,22 +2438,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2395,11 +2483,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2418,16 +2521,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2444,21 +2540,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2494,97 +2575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,7 +2605,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2620,13 +2683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2638,13 +2707,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2656,19 +2731,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2697,39 +2778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2741,6 +2789,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2774,8 +2840,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2785,10 +2866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2797,37 +2878,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2836,94 +2911,100 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3856,7 +3937,7 @@
   <sheetPr/>
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
@@ -4522,8 +4603,8 @@
   <sheetPr/>
   <dimension ref="C2:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -4899,7 +4980,9 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="O14" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -4908,10 +4991,10 @@
     <row r="15" spans="3:19">
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -4921,7 +5004,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="N15" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -4933,7 +5016,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -4943,7 +5026,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -4955,7 +5038,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -4976,7 +5059,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -4997,13 +5080,13 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -5020,7 +5103,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -5040,10 +5123,10 @@
     <row r="21" spans="3:19">
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -5064,7 +5147,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -5085,7 +5168,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -5095,7 +5178,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="N23" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -5107,7 +5190,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -5117,7 +5200,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="N24" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -5129,7 +5212,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -5147,45 +5230,45 @@
     </row>
     <row r="27" spans="4:5">
       <c r="D27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="4:5">
@@ -5198,15 +5281,15 @@
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E34" t="s">
         <v>96</v>
@@ -5233,18 +5316,18 @@
   <sheetPr/>
   <dimension ref="C1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="3:4">
       <c r="C1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="3:4">
@@ -5252,78 +5335,78 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="4:9">
       <c r="D5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="4:4">
@@ -5333,107 +5416,107 @@
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="4:5">
       <c r="D15" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="D22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5451,7 +5534,7 @@
   <dimension ref="A5:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -5473,364 +5556,364 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
       <c r="J13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="J14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G16" s="7"/>
       <c r="J16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7"/>
       <c r="J17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G18" s="7"/>
       <c r="J18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D21" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E25" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="3:10">
       <c r="C29" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J29" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="3:4">
@@ -5838,46 +5921,46 @@
         <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C43" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F43" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C44" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F44" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C45" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D45" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5904,10 +5987,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:R121"/>
+  <dimension ref="A2:R155"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -5920,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5932,10 +6015,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5944,135 +6027,141 @@
         <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="10:13">
       <c r="J7" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="10:13">
       <c r="J8" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="10:13">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="4:13">
       <c r="D13" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>96</v>
@@ -6080,13 +6169,13 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>214</v>
@@ -6097,33 +6186,32 @@
     </row>
     <row r="15" spans="4:13">
       <c r="D15" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>525</v>
+      </c>
       <c r="M15" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="4:13">
       <c r="D16" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>98</v>
@@ -6131,227 +6219,184 @@
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="1" t="s">
-        <v>529</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>535</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
       <c r="D23" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M23" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="24" spans="5:16">
-      <c r="E24" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="K24" s="1" t="s">
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="M24" s="1" t="s">
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="N24" s="1" t="s">
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="P24" s="1" t="s">
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="25" spans="11:16">
-      <c r="K25" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="26" spans="11:16">
-      <c r="K26" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="M26" s="1" t="s">
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" spans="11:16">
-      <c r="K27" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P35" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16">
+      <c r="E36" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="3" t="s">
+      <c r="K36" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="37" spans="11:16">
+      <c r="K37" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="11:16">
+      <c r="K38" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="11:16">
+      <c r="K39" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="3"/>
-      <c r="D42" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="3"/>
-      <c r="D43" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="3"/>
-      <c r="D45" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="3"/>
-      <c r="D46" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="3"/>
-      <c r="D47" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="3"/>
-      <c r="D50" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52" s="3" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J52" s="1" t="s">
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6361,538 +6406,696 @@
         <v>571</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:4">
       <c r="B55" s="3"/>
       <c r="D55" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="H55" s="1" t="s">
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>576</v>
+      <c r="I56" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3"/>
       <c r="D58" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="3"/>
+      <c r="D59" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="D59" s="1" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="4" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="3"/>
+      <c r="D62" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="3"/>
+      <c r="D69" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="3"/>
+      <c r="D70" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="3" t="s">
+      <c r="D72" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="4" t="s">
+      <c r="D73" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="1" t="s">
+    <row r="76" spans="2:4">
+      <c r="B76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="1" t="s">
+      <c r="G78" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6">
-      <c r="D73" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6">
-      <c r="D78" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="79" spans="7:15">
-      <c r="G79" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="80" spans="5:15">
-      <c r="E80" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15">
-      <c r="C81" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="82" spans="2:18">
-      <c r="B82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M82" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="O82" s="1" t="s">
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="83" spans="5:13">
-      <c r="E83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M83" s="1" t="s">
+    <row r="90" spans="4:6">
+      <c r="D90" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="84" spans="5:15">
-      <c r="E84" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K84" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="85" spans="5:11">
-      <c r="E85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="86" spans="3:13">
-      <c r="C86" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="87" spans="5:15">
-      <c r="E87" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="88" spans="5:7">
-      <c r="E88" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="5:15">
-      <c r="E89" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6">
-      <c r="E90" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="5:13">
-      <c r="E91" s="1" t="s">
-        <v>632</v>
-      </c>
+    </row>
+    <row r="91" spans="7:15">
       <c r="G91" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="I91" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>634</v>
+        <v>618</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="5:15">
       <c r="E92" s="1" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>635</v>
+        <v>620</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="93" spans="5:15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15">
+      <c r="C93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I93" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18">
+      <c r="B94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5">
-      <c r="E94" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13">
-      <c r="C95" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>545</v>
-      </c>
+      <c r="R94" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13">
       <c r="E95" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>643</v>
+        <v>148</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="96" spans="5:11">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="96" spans="5:15">
       <c r="E96" s="1" t="s">
-        <v>645</v>
+        <v>153</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="K96" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11">
+      <c r="E97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13">
+      <c r="C98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="99" spans="5:15">
+      <c r="E99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="5:15">
+      <c r="E101" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="E102" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="5:13">
+      <c r="E103" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="97" spans="5:13">
-      <c r="E97" s="1" t="s">
+      <c r="G103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="104" spans="5:15">
+      <c r="E104" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="105" spans="5:15">
+      <c r="E105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13">
+      <c r="C107" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11">
+      <c r="E108" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="109" spans="5:13">
+      <c r="E109" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="I109" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7">
-      <c r="D101" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7">
+      <c r="D113" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="102" spans="5:7">
-      <c r="E102" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="103" spans="5:7">
-      <c r="E103" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="104" spans="5:7">
-      <c r="E104" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7">
-      <c r="D108" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="1" t="s">
+    <row r="114" spans="5:7">
+      <c r="E114" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="120" spans="4:4">
+      <c r="G114" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7">
+      <c r="E115" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7">
+      <c r="E116" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7">
       <c r="D120" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
-      <c r="D121" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
